--- a/excel-template.xlsx
+++ b/excel-template.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\licensetool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JanneKiiskilä\git\licensetool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BDA8DB-A612-404F-B6F6-51A6F4459375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F64D5F3-EAA7-488F-9048-3DE7E606DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data-Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="15" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +34,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Count of Package</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>GPLv2+</t>
+  </si>
+  <si>
+    <t>MPL-2.0</t>
+  </si>
+  <si>
+    <t>MPL-2.0-changed</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,6 +121,274 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Janne Kiiskilä" refreshedDate="44512.668733217593" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7" xr:uid="{9B89DEC9-2841-403D-BE05-BF2F73C7954A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Package" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Previous version" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Previous recipe" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Previous license" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Current version" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Current recipe" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Current license" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="GPLv2+"/>
+        <m/>
+        <s v="MPL-2.0-changed"/>
+        <s v="MPL-2.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Change" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="y"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Version change" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="y"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="License change" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Package added" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="y"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Package removed" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="y"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <s v="acl"/>
+    <s v="2.2.53"/>
+    <s v="acl"/>
+    <s v="GPLv2+"/>
+    <s v="3.2.53"/>
+    <s v="acl"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="acl-dev"/>
+    <s v="2.2.53"/>
+    <s v="acl"/>
+    <s v="LGPLv2.1+ &amp; GPLv2+"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="aktualizr-configs"/>
+    <s v="1.0+gitAUTOINC+dad22588d7"/>
+    <s v="aktualizr"/>
+    <s v="MPL-2.0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="aktualizr"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="1.0+gitAUTOINC+dad22588d7"/>
+    <s v="aktualizr"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="New-Package"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="1.0"/>
+    <s v="New-Package"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EC6FF04-7C7E-470B-975D-6636E22E51B3}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Package" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,18 +654,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <f>1+1</f>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
